--- a/biology/Botanique/Dicentra_peregrina/Dicentra_peregrina.xlsx
+++ b/biology/Botanique/Dicentra_peregrina/Dicentra_peregrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicentra peregrina est une espèce de plantes vivaces de la famille des Papavéracées originaire du Nord-Est de l'Extrême-Orient (Russie et Japon).
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dicentra peregrina est une plante herbacée, annuelle, de montagne pouvant atteindre de 8 à 15 cm de haut. Ses feuilles forment, au ras du sol, un feuillage dense d'où émergent, en période estivale, des hampes florales terminées par des fleurs roses ou violettes, parfois blanches, longues de 2 à 2,5 cm[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dicentra peregrina est une plante herbacée, annuelle, de montagne pouvant atteindre de 8 à 15 cm de haut. Ses feuilles forment, au ras du sol, un feuillage dense d'où émergent, en période estivale, des hampes florales terminées par des fleurs roses ou violettes, parfois blanches, longues de 2 à 2,5 cm,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dicentra peregrina peuple les pentes sablonneuses et graveleuses des montagnes du Nord-Est de la Russie (Kamtchatka et Sakhaline, notamment), et des îles de Hokkaidō et de Honshū, au Japon[4],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dicentra peregrina peuple les pentes sablonneuses et graveleuses des montagnes du Nord-Est de la Russie (Kamtchatka et Sakhaline, notamment), et des îles de Hokkaidō et de Honshū, au Japon,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Japon, Dicentra peregrina est appelée « Komakusa (コマクサ?) », qui s'écrit aussi (駒草?, litt. « herbe cheval »). Cette dénomination fait allusion à la forme de cheval qu'aurait sa fleur vue de profil. Elle est aussi baptisée « reine des plantes alpines[7] »[8],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon, Dicentra peregrina est appelée « Komakusa (コマクサ?) », qui s'écrit aussi (駒草?, litt. « herbe cheval »). Cette dénomination fait allusion à la forme de cheval qu'aurait sa fleur vue de profil. Elle est aussi baptisée « reine des plantes alpines »,.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (6 août 2017)[9] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (6 août 2017) :
 variété Dicentra peregrina var. pusilla (Siebold &amp; Zucc.) Makino.</t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dicentra peregrina est cultivée comme plante ornementale, et est utilisée comme plante officinale en médecine traditionnelle japonaise[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dicentra peregrina est cultivée comme plante ornementale, et est utilisée comme plante officinale en médecine traditionnelle japonaise.
 </t>
         </is>
       </c>
